--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -44,7 +44,127 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:12 AM</t>
+    <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>FORMOHALE 12 MCG 30 CAPS. FOR INH.+INHALER</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>KAST 10MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 1 October, 2025 12:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +374,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +386,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +794,367 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>22</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>45</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>50</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>45</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>42</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>565.12</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +1168,55 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>31:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:27 AM</t>
+    <t>Wednesday, 1 October, 2025 9:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -44,24 +44,45 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>184.00</t>
   </si>
   <si>
     <t>92.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FORMOHALE 12 MCG 30 CAPS. FOR INH.+INHALER</t>
   </si>
   <si>
@@ -86,6 +107,18 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>KAST 10MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -107,6 +140,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -122,6 +161,18 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
@@ -152,10 +203,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -164,7 +212,19 @@
     <t>31:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:20 AM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 1 October, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -871,7 +931,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -881,11 +941,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -897,14 +957,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -921,7 +981,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -954,7 +1014,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -987,7 +1047,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -996,14 +1056,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1013,14 +1073,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1029,14 +1089,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1046,14 +1106,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1062,31 +1122,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1095,66 +1155,264 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>25</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>55</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>29</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>565.12</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>51</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>52</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
-        <v>53</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>62</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>66</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>62</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>59</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>68</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>62</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>69</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>849.70000000000005</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1471,40 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -143,9 +143,18 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -170,9 +179,6 @@
     <t>14.1000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
@@ -224,7 +230,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 10:45 AM</t>
+    <t>Wednesday, 1 October, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1129,7 +1135,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1145,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,14 +1161,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1172,14 +1178,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1188,7 +1194,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1205,14 +1211,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,14 +1227,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1244,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,7 +1260,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1271,11 +1277,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1287,7 +1293,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1300,15 +1306,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1320,28 +1326,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1353,28 +1359,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1382,13 +1388,13 @@
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="P23" s="13">
-        <v>849.70000000000005</v>
+        <v>803.70000000000005</v>
       </c>
       <c r="Q23" s="13"/>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c t="s" r="A24" s="14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1396,13 +1402,13 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c t="s" r="G24" s="15">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
       <c t="s" r="K24" s="17">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 10:59 AM</t>
+    <t>Wednesday, 1 October, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADVANCEVELA MAX MASSAGE 50GM CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>3:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>FORMOHALE 12 MCG 30 CAPS. FOR INH.+INHALER</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>198.00</t>
   </si>
   <si>
@@ -155,6 +164,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -179,6 +197,15 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>STATURIC 40MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
@@ -191,6 +218,27 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>47.5000</t>
+  </si>
+  <si>
+    <t>TROPHIC SILICONE GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -203,9 +251,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -230,7 +275,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 11:07 AM</t>
+    <t>Wednesday, 1 October, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -921,7 +966,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -930,14 +975,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -947,14 +992,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -963,14 +1008,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -987,7 +1032,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1003,7 +1048,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1013,14 +1058,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1029,14 +1074,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1046,14 +1091,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1062,14 +1107,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1086,7 +1131,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1102,7 +1147,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1112,14 +1157,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1128,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,14 +1190,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1161,14 +1206,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1178,14 +1223,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,14 +1239,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,14 +1256,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,14 +1272,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1244,14 +1289,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,14 +1305,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1277,14 +1322,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,31 +1338,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1326,31 +1371,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1366,59 +1411,224 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c t="s" r="Q22" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>803.70000000000005</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
         <v>73</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>74</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>32</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>77</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>73</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>80</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>73</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>77</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>85</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>73</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>86</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1240.2000000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>88</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>89</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>90</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1507,10 +1717,35 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -275,7 +275,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 11:12 AM</t>
+    <t>Wednesday, 1 October, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -275,7 +284,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 11:13 AM</t>
+    <t>Wednesday, 1 October, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1189,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1190,14 +1199,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1206,14 +1215,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1223,14 +1232,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,7 +1248,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1256,14 +1265,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1279,7 +1288,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1289,14 +1298,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1305,14 +1314,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1322,14 +1331,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1345,7 +1354,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1362,7 +1371,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1378,7 +1387,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1388,14 +1397,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1428,7 +1437,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1450,15 +1459,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1470,20 +1479,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1510,13 +1519,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1527,7 +1536,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1543,24 +1552,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,66 +1578,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1240.2000000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>88</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>76</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>89</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1251.585</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>91</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>92</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>93</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1742,10 +1784,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -284,7 +284,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 11:14 AM</t>
+    <t>Wednesday, 1 October, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -182,6 +191,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>POLYFRESH ADVANCED EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -257,6 +275,27 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا 45 مل صغير</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -266,6 +305,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -278,13 +326,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 1 October, 2025 11:41 AM</t>
+    <t>Wednesday, 1 October, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1024,7 +1066,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1034,11 +1076,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1050,14 +1092,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1067,11 +1109,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1083,14 +1125,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1140,7 +1182,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1156,7 +1198,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1166,11 +1208,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1182,7 +1224,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1199,14 +1241,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1215,14 +1257,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1239,7 +1281,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1272,7 +1314,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,14 +1323,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1305,7 +1347,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1321,7 +1363,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,14 +1373,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1347,14 +1389,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,14 +1406,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1380,14 +1422,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1439,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1420,7 +1462,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1472,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1446,14 +1488,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1463,11 +1505,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1479,31 +1521,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1512,14 +1554,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,11 +1571,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1545,7 +1587,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1558,7 +1600,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1569,7 +1611,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1585,21 +1627,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1611,20 +1653,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1635,42 +1677,207 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>82</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1251.585</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>91</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>92</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>93</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>82</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>82</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>99</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>102</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>82</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>86</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>103</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>104</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>82</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>99</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1529.5450000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>105</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>106</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>107</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1789,10 +1996,35 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -77,6 +77,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BIOVITA 60 GUMMIES</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -257,9 +278,6 @@
     <t>TROPHIC SILICONE GEL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -284,6 +302,15 @@
     <t>86.1300</t>
   </si>
   <si>
+    <t>ZINCODERM TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>زيت فاتيكا 45 مل صغير</t>
   </si>
   <si>
@@ -326,7 +353,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 11:56 AM</t>
+    <t>Wednesday, 1 October, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1050,7 +1077,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1066,13 +1093,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1083,7 +1110,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1132,7 +1159,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1142,11 +1169,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1158,14 +1185,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1198,7 +1225,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1208,14 +1235,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1224,14 +1251,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1248,7 +1275,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1264,7 +1291,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1274,14 +1301,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1290,14 +1317,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1330,7 +1357,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1340,14 +1367,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,14 +1383,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1396,7 +1423,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1406,14 +1433,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1422,14 +1449,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1446,7 +1473,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1455,14 +1482,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1472,14 +1499,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1488,14 +1515,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1512,7 +1539,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1521,14 +1548,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1545,7 +1572,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1561,7 +1588,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1594,13 +1621,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1611,7 +1638,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1627,7 +1654,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1660,13 +1687,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1677,7 +1704,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1693,21 +1720,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1719,31 +1746,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1752,28 +1779,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1785,28 +1812,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1818,66 +1845,165 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1529.5450000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>105</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>106</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>107</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>26</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>111</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>26</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>92</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>113</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>26</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>108</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1909.5450000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>114</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>115</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>116</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2021,10 +2147,25 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:09 PM</t>
+    <t>Wednesday, 1 October, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>BIOVITA 60 GUMMIES</t>
   </si>
   <si>
@@ -203,6 +212,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>PANTOPRAZOLE 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -311,6 +329,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>زيت فاتيكا 45 مل صغير</t>
   </si>
   <si>
@@ -332,6 +362,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -353,7 +395,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:15 PM</t>
+    <t>Wednesday, 1 October, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1060,7 +1102,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1093,21 +1135,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1119,20 +1161,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1143,7 +1185,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1159,7 +1201,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1169,11 +1211,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1185,14 +1227,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1225,7 +1267,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1258,7 +1300,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1268,11 +1310,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1284,14 +1326,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1301,14 +1343,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1317,14 +1359,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1374,7 +1416,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1390,7 +1432,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1400,14 +1442,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1416,14 +1458,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1433,14 +1475,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1449,14 +1491,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1473,7 +1515,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1489,7 +1531,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1506,7 +1548,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1522,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1532,14 +1574,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1548,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1565,14 +1607,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1581,14 +1623,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1598,14 +1640,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1621,7 +1663,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1631,14 +1673,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1647,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1664,11 +1706,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1680,20 +1722,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1704,7 +1746,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1720,7 +1762,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1753,13 +1795,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1770,7 +1812,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1786,7 +1828,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1819,24 +1861,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1845,7 +1887,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1858,18 +1900,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1878,20 +1920,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1924,15 +1966,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1944,66 +1986,198 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1909.5450000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>114</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>115</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>116</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>117</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>118</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>29</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>119</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>121</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>16</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>29</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>122</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>124</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>125</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>29</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>98</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>126</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>127</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>29</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>122</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2201.5450000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>128</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>129</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>130</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2162,10 +2336,30 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:17 PM</t>
+    <t>Wednesday, 1 October, 2025 12:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -395,7 +407,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:20 PM</t>
+    <t>Wednesday, 1 October, 2025 12:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1213,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1211,14 +1223,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1267,7 +1279,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1277,11 +1289,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1310,11 +1322,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1326,14 +1338,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1383,7 +1395,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1399,7 +1411,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1409,11 +1421,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1425,7 +1437,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1442,14 +1454,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1482,7 +1494,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1515,7 +1527,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1531,7 +1543,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1607,11 +1619,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1647,7 +1659,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1680,7 +1692,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1746,7 +1758,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1762,7 +1774,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,14 +1784,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,7 +1800,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1801,15 +1813,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1821,28 +1833,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1883,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,14 +1899,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,20 +1932,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1993,7 +2005,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,14 +2031,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2043,7 +2055,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2059,7 +2071,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,11 +2081,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2102,11 +2114,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2135,49 +2147,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2201.5450000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>128</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>129</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>130</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>131</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>29</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>126</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2232.5450000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>132</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>133</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>134</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2356,10 +2401,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -386,6 +398,9 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -407,7 +422,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:21 PM</t>
+    <t>Wednesday, 1 October, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1312,7 +1327,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1322,14 +1337,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1338,14 +1353,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1355,11 +1370,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1371,14 +1386,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1428,7 +1443,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1444,7 +1459,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1454,11 +1469,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1470,7 +1485,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1487,14 +1502,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1518,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1527,7 +1542,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1560,7 +1575,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1576,7 +1591,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1601,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,14 +1617,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,14 +1634,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1635,14 +1650,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,11 +1667,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1692,7 +1707,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1725,7 +1740,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1791,7 +1806,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1807,7 +1822,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,7 +1848,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1846,15 +1861,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1866,28 +1881,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,20 +1980,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2038,7 +2053,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2048,14 +2063,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2088,7 +2103,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2104,7 +2119,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,11 +2129,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2147,11 +2162,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2170,7 +2185,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2180,49 +2195,115 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2232.5450000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>134</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>29</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>106</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>136</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>29</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>131</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>133</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>134</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2361.5450000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>137</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>138</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>139</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2406,10 +2487,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -422,7 +431,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:26 PM</t>
+    <t>Wednesday, 1 October, 2025 12:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1789,7 +1798,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1822,7 +1831,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1872,7 +1881,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1894,7 +1903,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1921,13 +1930,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1954,7 +1963,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1971,7 +1980,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2004,7 +2013,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2020,21 +2029,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,11 +2171,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2195,11 +2204,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2218,7 +2227,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2228,11 +2237,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,49 +2270,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2361.5450000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>137</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>138</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>139</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>29</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>134</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2387.2849999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>140</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>141</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>142</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2497,10 +2539,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -263,6 +272,15 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -362,6 +380,24 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>185.0000</t>
+  </si>
+  <si>
+    <t>بادي لوشن كير اند مور</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -431,7 +467,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 12:47 PM</t>
+    <t>Wednesday, 1 October, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1174,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1148,14 +1184,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1164,14 +1200,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1181,11 +1217,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1197,20 +1233,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1237,13 +1273,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1270,7 +1306,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1280,14 +1316,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1296,14 +1332,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1353,7 +1389,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1369,7 +1405,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1386,7 +1422,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1402,7 +1438,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1435,7 +1471,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1445,11 +1481,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1461,14 +1497,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1478,14 +1514,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1494,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1551,7 +1587,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1567,7 +1603,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1577,14 +1613,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1593,14 +1629,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,14 +1646,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1626,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1650,7 +1686,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1666,7 +1702,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1683,7 +1719,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1699,7 +1735,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1732,7 +1768,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,14 +1794,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,14 +1811,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1791,14 +1827,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1808,14 +1844,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1831,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1848,7 +1884,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1874,14 +1910,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,11 +1943,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1923,20 +1959,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1947,7 +1983,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1963,7 +1999,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1996,13 +2032,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2013,7 +2049,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2029,7 +2065,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2062,24 +2098,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,28 +2124,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2121,31 +2157,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,28 +2190,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2187,28 +2223,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2227,21 +2263,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2253,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,66 +2322,198 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>144</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>12</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>33</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>135</v>
       </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2387.2849999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>140</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>141</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>142</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>145</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>16</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>33</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>146</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>148</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>149</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>33</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>115</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>150</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>151</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>33</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>146</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2716.2849999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>152</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>153</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>154</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2544,10 +2712,30 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 1:03 PM</t>
+    <t>Wednesday, 1 October, 2025 1:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>125.0000</t>
   </si>
   <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -467,7 +476,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 1:08 PM</t>
+    <t>Wednesday, 1 October, 2025 1:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1818,7 +1827,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>44</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1900,7 +1909,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,14 +1952,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2016,7 +2025,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2038,7 +2047,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2065,13 +2074,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2098,7 +2107,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2115,7 +2124,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2131,7 +2140,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2148,7 +2157,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2164,13 +2173,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2197,7 +2206,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2230,7 +2239,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,11 +2249,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,11 +2282,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2313,7 +2322,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2372,11 +2381,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2405,11 +2414,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2428,7 +2437,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2447,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,49 +2480,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2716.2849999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>152</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>153</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>154</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>33</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>149</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2769.7449999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>155</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>156</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>157</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2732,10 +2774,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>MELOCAM 15MG 30 TAB.</t>
   </si>
   <si>
@@ -233,6 +242,21 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>OSIPECT SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -254,6 +278,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -422,9 +455,6 @@
     <t>زيت فاتيكا 45 مل صغير</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -476,7 +506,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 1:12 PM</t>
+    <t>Wednesday, 1 October, 2025 2:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1612,7 +1642,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1645,7 +1675,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1655,14 +1685,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1671,14 +1701,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1688,14 +1718,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1704,14 +1734,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1728,7 +1758,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1737,14 +1767,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1754,14 +1784,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1770,14 +1800,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1787,14 +1817,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1803,14 +1833,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1820,14 +1850,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1836,14 +1866,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1853,11 +1883,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1869,14 +1899,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1886,14 +1916,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1909,7 +1939,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1926,7 +1956,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1942,7 +1972,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1952,14 +1982,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1975,7 +2005,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1985,14 +2015,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2001,14 +2031,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2018,14 +2048,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2034,14 +2064,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2081,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,28 +2097,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2100,14 +2130,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2117,14 +2147,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2133,14 +2163,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2150,14 +2180,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2166,7 +2196,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2179,15 +2209,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2199,28 +2229,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2232,31 +2262,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2265,28 +2295,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2298,14 +2328,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2355,7 +2385,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2404,7 +2434,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2414,11 +2444,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2430,14 +2460,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2463,14 +2493,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2480,11 +2510,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2513,49 +2543,148 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2769.7449999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>155</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>156</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>157</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>158</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>16</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>33</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>159</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>161</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>162</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>33</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>129</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>163</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>164</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>33</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>159</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2892.7449999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>165</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>166</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>167</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2779,10 +2908,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -506,7 +506,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 2:12 PM</t>
+    <t>Wednesday, 1 October, 2025 2:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -452,6 +452,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ريست سبورت </t>
+  </si>
+  <si>
     <t>زيت فاتيكا 45 مل صغير</t>
   </si>
   <si>
@@ -506,7 +509,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 2:21 PM</t>
+    <t>Wednesday, 1 October, 2025 2:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2434,7 +2437,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2444,11 +2447,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2477,14 +2480,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2493,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2510,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2543,11 +2546,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2566,7 +2569,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2576,11 +2579,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2592,14 +2595,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2625,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2642,49 +2645,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>165</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>33</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>160</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2892.7449999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>165</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2917.7449999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
         <v>166</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
         <v>167</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>168</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2923,10 +2959,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 2:29 PM</t>
+    <t>Wednesday, 1 October, 2025 2:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -161,6 +170,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -215,9 +233,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>22.0000</t>
   </si>
   <si>
@@ -308,9 +323,6 @@
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
-    <t>162.00</t>
-  </si>
-  <si>
     <t>53.4600</t>
   </si>
   <si>
@@ -374,9 +386,6 @@
     <t>176.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
   </si>
   <si>
@@ -509,7 +518,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 2:33 PM</t>
+    <t>Wednesday, 1 October, 2025 2:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,7 +1423,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1424,14 +1433,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1440,14 +1449,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1464,7 +1473,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1480,7 +1489,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1497,7 +1506,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1530,7 +1539,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1546,7 +1555,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1556,11 +1565,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1572,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1589,14 +1598,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1605,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1622,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1662,7 +1671,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1695,7 +1704,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1711,7 +1720,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1737,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1754,14 +1763,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1787,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1803,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1836,14 +1845,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1853,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1886,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1902,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1935,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1968,7 +1977,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1985,11 +1994,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2067,14 +2076,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,14 +2093,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2100,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2126,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,14 +2159,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,11 +2192,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2199,31 +2208,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2258,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2265,31 +2274,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,11 +2324,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2331,31 +2340,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,7 +2373,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2377,15 +2386,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2397,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2423,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,11 +2489,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,14 +2522,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,11 +2555,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2562,7 +2571,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,49 +2687,115 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2917.7449999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>166</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>33</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>132</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>167</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>168</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>33</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>163</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>3123.7449999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>169</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>170</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>171</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2964,10 +3039,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -107,6 +122,21 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>CEFAXONE 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CERELAC تمر وقمح ولبن</t>
   </si>
   <si>
@@ -200,9 +230,6 @@
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -269,9 +296,6 @@
     <t>64.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -335,6 +359,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>112.8000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -347,9 +383,6 @@
     <t>188.0000</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -479,7 +512,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -491,9 +527,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -518,7 +551,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 2:34 PM</t>
+    <t>Wednesday, 1 October, 2025 2:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1258,7 +1291,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1268,14 +1301,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1284,14 +1317,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1301,11 +1334,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1317,28 +1350,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1350,14 +1383,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1367,14 +1400,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1383,31 +1416,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1416,14 +1449,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1433,11 +1466,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1449,14 +1482,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1466,11 +1499,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1482,14 +1515,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1499,11 +1532,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1515,14 +1548,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1532,14 +1565,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1548,14 +1581,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1565,14 +1598,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1581,7 +1614,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1598,14 +1631,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1614,14 +1647,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1631,11 +1664,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1647,14 +1680,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1664,14 +1697,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1680,14 +1713,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1697,14 +1730,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1713,14 +1746,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,14 +1763,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,7 +1779,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1763,14 +1796,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1779,14 +1812,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,14 +1829,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1812,14 +1845,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1829,14 +1862,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1869,7 +1902,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1885,7 +1918,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,14 +1928,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,14 +1944,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1961,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1944,14 +1977,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1961,14 +1994,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1977,14 +2010,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,11 +2027,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2010,14 +2043,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,14 +2060,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,7 +2076,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2060,11 +2093,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,14 +2126,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2116,7 +2149,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2133,7 +2166,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2149,7 +2182,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2159,14 +2192,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,14 +2208,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2225,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,14 +2241,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,14 +2258,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,14 +2274,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,14 +2291,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,28 +2307,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2307,14 +2340,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,14 +2357,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,14 +2390,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2373,7 +2406,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2386,15 +2419,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2406,28 +2439,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2439,31 +2472,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2472,28 +2505,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2505,28 +2538,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2538,28 +2571,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2571,31 +2604,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,20 +2637,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2637,28 +2670,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2670,31 +2703,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,28 +2736,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2736,20 +2769,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2764,38 +2797,137 @@
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>3123.7449999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>169</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>170</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>171</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>173</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>16</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>43</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>174</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>176</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>177</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>43</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>143</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>178</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>179</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>43</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3412.0450000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>180</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>181</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>182</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3049,10 +3181,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 2:55 PM</t>
+    <t>Wednesday, 1 October, 2025 3:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -299,13 +299,16 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
@@ -551,7 +554,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 3:07 PM</t>
+    <t>Wednesday, 1 October, 2025 3:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1968,7 +1971,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1977,7 +1980,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1994,11 +1997,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2010,7 +2013,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2027,11 +2030,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2043,7 +2046,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2060,11 +2063,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2076,7 +2079,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2093,11 +2096,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2109,7 +2112,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2130,7 +2133,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2142,7 +2145,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2159,11 +2162,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2175,7 +2178,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,11 +2228,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2241,7 +2244,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2258,11 +2261,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>57</v>
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2295,7 +2298,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2324,11 +2327,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,7 +2360,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2373,7 +2376,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2390,11 +2393,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2406,7 +2409,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2423,11 +2426,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2439,7 +2442,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2456,11 +2459,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2472,7 +2475,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2489,11 +2492,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2505,7 +2508,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2538,7 +2541,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2555,11 +2558,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2571,7 +2574,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2588,11 +2591,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,11 +2624,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2637,7 +2640,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2654,11 +2657,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2670,7 +2673,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2687,11 +2690,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2703,7 +2706,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2720,14 +2723,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,14 +2739,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2769,7 +2772,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2786,11 +2789,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2802,7 +2805,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2819,11 +2822,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2835,14 +2838,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2852,11 +2855,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2868,14 +2871,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,11 +2888,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2897,13 +2900,13 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="P59" s="13">
-        <v>3412.0450000000001</v>
+        <v>3435.0450000000001</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c t="s" r="A60" s="14">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2911,13 +2914,13 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c t="s" r="G60" s="15">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
       <c t="s" r="K60" s="17">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -554,7 +554,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 3:10 PM</t>
+    <t>Wednesday, 1 October, 2025 4:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -80,21 +80,21 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>286.00</t>
   </si>
   <si>
@@ -371,9 +371,6 @@
     <t>112.8000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -515,21 +512,24 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 4:01 PM</t>
+    <t>Wednesday, 1 October, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1723,7 +1723,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2020,7 +2020,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2202,7 +2202,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2211,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2228,11 +2228,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2261,11 +2261,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>57</v>
@@ -2277,14 +2277,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2343,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2393,11 +2393,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2426,11 +2426,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2442,14 +2442,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,11 +2459,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2525,11 +2525,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2558,11 +2558,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2591,11 +2591,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2607,14 +2607,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2624,11 +2624,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2640,14 +2640,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2657,11 +2657,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2690,11 +2690,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2723,14 +2723,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>169</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2739,14 +2739,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2756,11 +2756,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2855,11 +2855,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="P59" s="13">
-        <v>3435.0450000000001</v>
+        <v>3480.0450000000001</v>
       </c>
       <c r="Q59" s="13"/>
     </row>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -455,6 +455,15 @@
     <t>86.1300</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>ZINCODERM TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -554,7 +563,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 4:35 PM</t>
+    <t>Wednesday, 1 October, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2515,7 +2524,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2548,13 +2557,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2581,7 +2590,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2614,7 +2623,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2640,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2657,11 +2666,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2713,7 +2722,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2739,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2789,11 +2798,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2822,11 +2831,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2845,7 +2854,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2855,11 +2864,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2888,49 +2897,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3480.0450000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>181</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>182</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>183</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>43</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>178</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3503.0450000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>184</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>185</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>186</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3199,10 +3241,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -284,6 +284,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>OSIPECT SYRUP 120 ML</t>
   </si>
   <si>
@@ -299,18 +311,9 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
   </si>
   <si>
@@ -563,7 +566,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 4:52 PM</t>
+    <t>Wednesday, 1 October, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1947,7 +1950,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1980,7 +1983,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,14 +1992,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2006,14 +2009,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,14 +2042,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,11 +2075,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,11 +2108,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2121,7 +2124,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2138,14 +2141,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2154,7 +2157,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2171,14 +2174,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2207,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2220,14 +2223,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2273,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,14 +2306,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2339,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2352,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,7 +2421,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2431,15 +2434,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2451,28 +2454,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2501,14 +2504,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,14 +2537,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2583,28 +2586,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2616,14 +2619,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2633,11 +2636,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,11 +2669,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2682,14 +2685,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2722,7 +2725,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,11 +2735,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2854,7 +2857,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,11 +2867,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,11 +2900,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,49 +2933,82 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>183</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>184</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>43</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>179</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3503.0450000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>184</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3534.0450000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
         <v>185</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
         <v>186</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>187</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3246,10 +3282,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -191,6 +191,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>312.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -566,7 +578,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 5:39 PM</t>
+    <t>Wednesday, 1 October, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,7 +1615,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,11 +1658,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1712,11 +1724,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1745,11 +1757,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1785,7 +1797,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1801,7 +1813,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1811,11 +1823,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1877,11 +1889,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1917,7 +1929,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1950,7 +1962,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1983,7 +1995,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1999,7 +2011,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2108,11 +2120,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2141,11 +2153,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2157,7 +2169,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2174,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2190,7 +2202,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2280,7 +2292,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2296,7 +2308,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2306,14 +2318,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2339,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2409,10 +2421,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2454,7 +2466,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2467,15 +2479,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2487,28 +2499,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2603,11 +2615,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2619,28 +2631,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2669,11 +2681,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2725,7 +2737,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2735,11 +2747,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2824,7 +2836,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2857,7 +2869,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2867,11 +2879,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2900,11 +2912,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2933,11 +2945,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2966,49 +2978,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3534.0450000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>185</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>186</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>187</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>188</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>43</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>183</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3846.0450000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>189</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>190</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>191</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3287,10 +3332,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -578,7 +578,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 5:41 PM</t>
+    <t>Wednesday, 1 October, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -557,6 +566,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فاتيكا 125 مل</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -578,7 +590,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 5:46 PM</t>
+    <t>Wednesday, 1 October, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1990,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,14 +2000,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,14 +2033,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2058,10 +2070,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2070,14 +2082,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,14 +2099,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2110,7 +2122,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2127,7 +2139,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2143,7 +2155,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2176,7 +2188,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2235,7 +2247,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2275,7 +2287,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2292,7 +2304,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2308,7 +2320,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2358,7 +2370,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2374,7 +2386,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,14 +2396,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2407,7 +2419,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2429,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2440,7 +2452,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2473,7 +2485,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2495,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2512,7 +2524,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2539,13 +2551,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2572,7 +2584,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2589,7 +2601,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2605,7 +2617,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2622,7 +2634,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2638,7 +2650,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2671,13 +2683,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2704,7 +2716,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2737,7 +2749,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,11 +2759,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2763,14 +2775,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,11 +2792,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,11 +2825,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2836,7 +2848,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2853,7 +2865,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,14 +2874,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2912,11 +2924,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,11 +2957,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2968,7 +2980,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,11 +2990,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,49 +3023,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3846.0450000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>189</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>190</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>43</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>151</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>191</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>192</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>43</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>187</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3967.0450000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>193</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>194</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>195</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3337,10 +3415,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -434,6 +443,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>SWABIVENT NEBULIZER SOLN. 20 AMP. 2.5ML</t>
   </si>
   <si>
@@ -485,9 +503,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>ZINCODERM TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -590,7 +605,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 5:57 PM</t>
+    <t>Wednesday, 1 October, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2452,7 +2467,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2485,7 +2500,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2518,7 +2533,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2535,7 +2550,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2551,24 +2566,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2584,7 +2599,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2617,13 +2632,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2634,7 +2649,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2650,7 +2665,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2683,7 +2698,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2700,7 +2715,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2722,7 +2737,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2730,7 +2745,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2742,7 +2757,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2755,15 +2770,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2775,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,11 +2807,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2808,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2825,11 +2840,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2848,7 +2863,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2858,11 +2873,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2924,11 +2939,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2940,7 +2955,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2957,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2980,7 +2995,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2990,11 +3005,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3023,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3039,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3056,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3079,7 +3094,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3089,49 +3104,115 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3967.0450000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>194</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>195</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>43</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>157</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>197</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>43</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>192</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>194</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>195</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>4011.0450000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>198</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>199</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>200</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3425,10 +3506,20 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>312.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -215,9 +224,6 @@
     <t>ESMOPROTON 40 MG 14 CAPS</t>
   </si>
   <si>
-    <t>162.00</t>
-  </si>
-  <si>
     <t>162.0000</t>
   </si>
   <si>
@@ -296,6 +302,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -374,9 +392,6 @@
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
-    <t>53.4600</t>
-  </si>
-  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -542,6 +557,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:17</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ريست سبورت </t>
   </si>
   <si>
@@ -560,10 +587,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -605,7 +632,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 5:58 PM</t>
+    <t>Wednesday, 1 October, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1702,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1692,7 +1719,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1708,7 +1735,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1741,7 +1768,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1778,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1794,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,11 +1811,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1800,14 +1827,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,11 +1844,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,11 +1910,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1943,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1939,7 +1966,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,11 +1976,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2009,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,11 +2042,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,14 +2108,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2137,7 +2164,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,7 +2190,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2180,11 +2207,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2203,7 +2230,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2220,7 +2247,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2236,7 +2263,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2269,7 +2296,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,7 +2322,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2312,11 +2339,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2636,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,20 +2652,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2646,10 +2673,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,11 +2702,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2691,31 +2718,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,11 +2768,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2764,7 +2791,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2781,7 +2808,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2803,7 +2830,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2811,7 +2838,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2823,7 +2850,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2836,15 +2863,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2900,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,11 +2933,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2929,7 +2956,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,11 +2966,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>184</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,11 +3032,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,11 +3065,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3061,7 +3088,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,11 +3131,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,11 +3164,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,49 +3197,148 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>4011.0450000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>198</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>199</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>200</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>16</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>43</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>201</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>203</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>204</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>43</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>162</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>205</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>206</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>43</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>4128.0050000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>207</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>208</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>209</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3516,10 +3642,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 6:01 PM</t>
+    <t>Wednesday, 1 October, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>0:3</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
   </si>
   <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
@@ -2131,7 +2140,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2211,10 +2220,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2280,7 +2289,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2329,7 +2338,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2388,7 +2397,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2428,7 +2437,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2511,7 +2520,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2527,7 +2536,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2570,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2593,7 +2602,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2626,7 +2635,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2643,7 +2652,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2731,7 +2740,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2758,13 +2767,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2791,7 +2800,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2808,7 +2817,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2824,7 +2833,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2838,10 +2847,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,11 +2876,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2890,13 +2899,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2923,7 +2932,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2956,7 +2965,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3088,7 +3097,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3105,7 +3114,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,11 +3173,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3253,7 +3262,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3263,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3296,49 +3305,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>4128.0050000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>207</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>208</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>209</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>43</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>204</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>4196.0050000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>210</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>211</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>212</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3657,10 +3699,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 6:22 PM</t>
+    <t>Wednesday, 1 October, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1447,7 +1447,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -314,6 +314,9 @@
     <t>0:3</t>
   </si>
   <si>
+    <t xml:space="preserve">NEVXAL FORTE 0.3%  DROPS</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -440,6 +443,18 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -641,7 +656,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 6:24 PM</t>
+    <t>Wednesday, 1 October, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2107,21 +2122,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2133,7 +2148,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2150,11 +2165,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2166,14 +2181,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2198,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2214,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2231,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2247,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2264,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2280,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2297,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2313,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2330,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,11 +2396,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2397,7 +2412,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2414,14 +2429,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2447,14 +2462,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2478,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2495,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2544,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2561,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2676,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2693,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2742,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2759,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,20 +2775,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2781,10 +2796,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2808,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2826,31 +2841,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2899,7 +2914,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2916,7 +2931,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2938,7 +2953,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2946,7 +2961,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2958,7 +2973,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2971,15 +2986,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3056,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3097,7 +3112,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3189,7 +3204,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3206,14 +3221,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,7 +3244,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3254,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3255,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3287,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3320,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3328,7 +3343,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,49 +3353,115 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>4196.0050000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>211</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>212</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>43</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>170</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>213</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>214</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>43</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>209</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>210</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>211</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>212</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4245.5050000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>215</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>216</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>217</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3704,10 +3785,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>312.0000</t>
   </si>
   <si>
+    <t>DOXIUM 500MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -257,9 +269,6 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -536,6 +545,15 @@
     <t>86.1300</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
@@ -656,7 +674,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 6:32 PM</t>
+    <t>Wednesday, 1 October, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1726,7 +1744,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1736,11 +1754,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1802,11 +1820,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1818,14 +1836,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1835,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1851,14 +1869,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1868,11 +1886,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1901,11 +1919,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1917,14 +1935,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1941,7 +1959,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1957,7 +1975,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1990,7 +2008,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2016,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,7 +2051,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2056,7 +2074,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2082,14 +2100,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2099,14 +2117,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2115,31 +2133,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2148,28 +2166,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2221,7 +2239,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2231,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2247,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2264,14 +2282,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2280,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2301,10 +2319,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2313,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2330,14 +2348,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2353,7 +2371,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2370,7 +2388,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2386,7 +2404,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2419,7 +2437,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2480,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2478,7 +2496,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2495,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2518,7 +2536,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2535,7 +2553,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2577,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2601,7 +2619,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2617,7 +2635,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2627,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2643,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2660,7 +2678,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2683,7 +2701,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2693,14 +2711,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2716,7 +2734,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2749,7 +2767,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2766,7 +2784,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2782,7 +2800,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2815,7 +2833,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2854,7 +2872,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2881,13 +2899,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2914,7 +2932,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2931,7 +2949,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2947,7 +2965,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2961,10 +2979,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2973,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,7 +3024,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3019,15 +3037,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3052,7 +3070,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3079,7 +3097,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3089,11 +3107,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3105,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3122,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,11 +3173,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3171,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,14 +3222,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3221,14 +3239,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3237,14 +3255,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,11 +3272,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3270,7 +3288,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3287,14 +3305,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,14 +3321,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,11 +3338,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3336,14 +3354,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,11 +3371,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3369,14 +3387,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3386,11 +3404,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3402,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,49 +3437,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4245.5050000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>217</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>218</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>43</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>173</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>219</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>220</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>43</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>215</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>217</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4329.2150000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>221</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>222</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>223</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3795,10 +3879,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>162.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -275,6 +284,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>ITOMASH 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>KAST 10MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -374,6 +392,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
   </si>
   <si>
@@ -647,6 +674,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -656,25 +695,25 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>31:0</t>
   </si>
   <si>
+    <t>معجون سنسوداين صغير</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 6:44 PM</t>
+    <t>Wednesday, 1 October, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1876,7 +1915,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1909,7 +1948,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1942,7 +1981,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1975,7 +2014,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1992,7 +2031,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2008,7 +2047,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2041,7 +2080,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2051,11 +2090,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2067,7 +2106,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2084,14 +2123,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2100,14 +2139,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2156,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2133,14 +2172,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2150,14 +2189,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2166,28 +2205,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2199,14 +2238,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2216,14 +2255,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2232,28 +2271,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2272,7 +2311,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,14 +2321,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2298,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2315,14 +2354,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2331,14 +2370,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2348,14 +2387,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2371,7 +2410,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2381,14 +2420,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2397,7 +2436,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2414,11 +2453,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2437,7 +2476,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2470,7 +2509,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2487,7 +2526,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2503,7 +2542,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2513,14 +2552,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2529,14 +2568,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2546,11 +2585,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2562,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2579,14 +2618,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2595,14 +2634,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,14 +2651,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2628,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2684,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2700,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2717,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2694,14 +2733,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2766,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2783,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,14 +2799,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2784,7 +2823,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2800,7 +2839,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2810,7 +2849,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2833,7 +2872,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,14 +2882,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2866,7 +2905,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2899,13 +2938,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2916,7 +2955,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2932,7 +2971,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2981,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2965,7 +3004,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2982,7 +3021,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2998,13 +3037,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3015,7 +3054,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3031,7 +3070,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3045,7 +3084,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3057,14 +3096,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3074,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3090,31 +3129,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,28 +3162,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3163,21 +3202,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3189,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3245,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3261,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,11 +3278,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3262,7 +3301,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,11 +3311,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3288,14 +3327,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3344,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>207</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3360,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,11 +3377,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3354,14 +3393,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3371,11 +3410,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3394,7 +3433,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3404,14 +3443,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,14 +3459,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,11 +3476,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3453,14 +3492,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,11 +3509,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3486,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,49 +3542,214 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4329.2150000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>221</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>222</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>226</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>38</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>43</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>104</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>227</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>16</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>43</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>223</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>228</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>229</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>43</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>182</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>230</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>38</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>43</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>119</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>232</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>233</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>43</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>223</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4565.6149999999998</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>234</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>235</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>236</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3889,10 +4093,35 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ADVANCEVELA MAX MASSAGE 50GM CREAM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>29.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -302,6 +311,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -317,6 +335,15 @@
     <t>11.3850</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -368,9 +395,6 @@
     <t>1:8</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>8.0000</t>
   </si>
   <si>
@@ -695,6 +719,12 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>لزقه النمر بسعر القطعه</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -713,7 +743,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 6:46 PM</t>
+    <t>Wednesday, 1 October, 2025 7:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1387,7 +1417,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1397,14 +1427,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1413,14 +1443,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1430,14 +1460,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1446,14 +1476,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1463,14 +1493,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1479,14 +1509,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1496,14 +1526,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1536,7 +1566,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1552,7 +1582,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1562,14 +1592,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1578,31 +1608,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1611,31 +1641,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1644,14 +1674,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1668,7 +1698,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1684,7 +1714,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1717,7 +1747,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1727,14 +1757,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1743,14 +1773,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1760,14 +1790,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1776,14 +1806,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1793,14 +1823,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1809,14 +1839,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1833,7 +1863,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1849,7 +1879,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1882,7 +1912,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1892,14 +1922,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1908,14 +1938,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1925,14 +1955,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1948,7 +1978,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1965,7 +1995,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1981,7 +2011,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1998,7 +2028,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2014,7 +2044,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2031,7 +2061,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2047,7 +2077,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2080,7 +2110,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2097,7 +2127,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2113,7 +2143,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2146,7 +2176,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2205,14 +2235,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2222,11 +2252,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2238,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2255,14 +2285,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2271,31 +2301,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2311,7 +2341,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2321,14 +2351,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2370,31 +2400,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2436,14 +2466,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2453,14 +2483,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2469,14 +2499,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2486,14 +2516,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2526,7 +2556,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2542,7 +2572,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2556,10 +2586,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2585,14 +2615,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,11 +2648,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,14 +2681,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,14 +2714,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,14 +2747,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2750,14 +2780,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2783,14 +2813,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2799,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2832,14 +2862,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,14 +2879,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2865,14 +2895,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2882,14 +2912,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,11 +2945,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2931,14 +2961,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +2978,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2964,14 +2994,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2981,14 +3011,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2997,14 +3027,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,14 +3044,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3030,28 +3060,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3063,14 +3093,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3084,10 +3114,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3096,14 +3126,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3143,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3129,31 +3159,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3162,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3209,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3202,7 +3232,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3235,13 +3265,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3268,13 +3298,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3282,10 +3312,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,31 +3324,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3327,31 +3357,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,31 +3390,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3393,20 +3423,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3417,7 +3447,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3433,24 +3463,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>216</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3466,24 +3496,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,31 +3522,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3525,7 +3555,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3538,18 +3568,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,31 +3588,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3591,31 +3621,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3624,31 +3654,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3657,31 +3687,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3690,66 +3720,198 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4565.6149999999998</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>234</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>235</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>236</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>237</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>46</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>219</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>238</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>239</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>46</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>190</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>240</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>41</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>46</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>14</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>242</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>243</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>46</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>231</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4684.6149999999998</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>244</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>245</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>246</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4118,10 +4280,30 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -743,7 +743,13 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:25 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 1 October, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3880,38 +3886,71 @@
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4684.6149999999998</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>244</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>245</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>46</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>152</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4714.6149999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>246</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>247</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>248</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4300,10 +4339,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -86,12 +86,21 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -164,12 +173,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>CLARIKAN S.R. 500MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -188,6 +191,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -284,6 +299,15 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -362,9 +386,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -611,6 +632,18 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8207:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>ZINCODERM TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -677,9 +710,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>26.0000</t>
   </si>
   <si>
@@ -722,9 +752,6 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -749,7 +776,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:26 PM</t>
+    <t>Wednesday, 1 October, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1506,7 +1533,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1515,7 +1542,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1532,14 +1559,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1548,14 +1575,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1565,14 +1592,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1588,7 +1615,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1621,7 +1648,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1631,14 +1658,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1647,31 +1674,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1680,28 +1707,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1713,14 +1740,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,14 +1757,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1763,14 +1790,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1823,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1839,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1829,14 +1856,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1845,14 +1872,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1862,11 +1889,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,14 +1938,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1928,14 +1955,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,7 +1971,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1961,14 +1988,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,7 +2028,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2017,7 +2044,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,11 +2087,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,11 +2120,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2109,14 +2136,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,11 +2186,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,11 +2219,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2252,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,7 +2285,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2298,7 +2325,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2314,7 +2341,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2331,7 +2358,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2347,7 +2374,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2384,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,14 +2400,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2390,14 +2417,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2406,28 +2433,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2479,7 +2506,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2512,24 +2539,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2588,11 +2615,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2604,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2648,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2670,7 +2697,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2687,11 +2714,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2703,14 +2730,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,11 +2747,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2809,7 +2836,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2842,7 +2869,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2859,7 +2886,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2875,7 +2902,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2978,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3011,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,14 +3060,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,11 +3110,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3099,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3143,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3159,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,11 +3176,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3165,31 +3192,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3242,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,31 +3291,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,11 +3341,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3330,14 +3357,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3374,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,31 +3390,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,28 +3423,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3429,31 +3456,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,31 +3489,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,28 +3522,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3528,28 +3555,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3561,20 +3588,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3585,7 +3612,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>224</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,31 +3621,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,28 +3654,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3660,28 +3687,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3693,31 +3720,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3733,21 +3760,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3759,28 +3786,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3792,28 +3819,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3825,28 +3852,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3858,28 +3885,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3891,66 +3918,198 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4714.6149999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>246</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>247</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
         <v>248</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>49</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>197</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>249</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>44</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>49</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>14</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>251</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>252</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>49</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>241</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>253</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>254</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>49</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>159</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4925.6149999999998</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>255</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>256</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>257</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4344,10 +4503,30 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>NESTOGEN 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>255.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -683,6 +692,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>جل صبار للبشره</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
   </si>
   <si>
@@ -728,6 +740,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -761,9 +785,6 @@
     <t>معجون سنسوداين صغير</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -776,7 +797,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:29 PM</t>
+    <t>Wednesday, 1 October, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2506,7 +2527,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2516,14 +2537,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2539,24 +2560,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2565,28 +2586,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2638,7 +2659,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2648,14 +2669,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2697,14 +2718,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2718,10 +2739,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2747,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2770,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2787,7 +2808,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2803,7 +2824,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2820,7 +2841,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2836,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2869,7 +2890,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,7 +2949,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2968,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2985,7 +3006,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3001,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3027,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3051,7 +3072,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3067,7 +3088,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3110,7 +3131,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3133,7 +3154,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3166,7 +3187,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3199,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3216,7 +3237,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3232,7 +3253,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3242,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3265,7 +3286,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3304,7 +3325,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3331,13 +3352,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3364,7 +3385,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3381,7 +3402,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3430,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3444,10 +3465,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3456,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3477,10 +3498,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3513,7 +3534,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3529,13 +3550,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3562,7 +3583,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3595,7 +3616,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3605,11 +3626,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3621,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3654,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3671,11 +3692,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3687,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3711,7 +3732,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3727,7 +3748,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3737,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>234</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,11 +3791,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3803,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,11 +3857,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3885,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3902,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,11 +3956,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3951,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,11 +3989,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3984,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4001,7 +4022,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4017,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4050,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4067,49 +4088,148 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4925.6149999999998</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>255</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>256</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>257</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>44</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>49</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>258</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>259</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>49</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>249</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>260</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>261</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>49</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>162</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5245.6149999999998</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>262</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>263</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>264</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4523,10 +4643,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:50 PM</t>
+    <t>Wednesday, 1 October, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>312.0000</t>
   </si>
   <si>
+    <t>DIGEST EZE 20 CAPS</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>94.0000</t>
+  </si>
+  <si>
     <t>DOXIUM 500MG 30 CAPS.</t>
   </si>
   <si>
@@ -350,6 +359,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>MELOCAM 15MG 30 TAB.</t>
   </si>
   <si>
@@ -590,6 +608,12 @@
     <t>176.00</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>TRIVASTAL RETARD 50MG 30 TAB.</t>
   </si>
   <si>
@@ -653,6 +677,9 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>YEAST MEPACO 60 TABS</t>
+  </si>
+  <si>
     <t>ZINCODERM TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -797,7 +824,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:51 PM</t>
+    <t>Wednesday, 1 October, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1966,7 +1993,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,14 +2003,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1992,14 +2019,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2032,7 +2059,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2049,7 +2076,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2065,7 +2092,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,11 +2102,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2131,7 +2158,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2164,7 +2191,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2197,7 +2224,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2230,7 +2257,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2247,7 +2274,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2263,7 +2290,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2296,7 +2323,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2313,7 +2340,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2329,7 +2356,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2346,7 +2373,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2362,7 +2389,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2379,7 +2406,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2395,7 +2422,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,11 +2432,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,7 +2465,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2461,7 +2488,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2494,7 +2521,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2597,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2599,15 +2626,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,14 +2663,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2652,28 +2679,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2692,7 +2719,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2729,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2725,7 +2752,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2795,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2791,7 +2818,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,14 +2861,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2857,7 +2884,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2890,7 +2917,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2907,7 +2934,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2923,7 +2950,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2956,7 +2983,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,7 +3009,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2999,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3015,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3055,7 +3082,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3174,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3191,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3204,7 +3231,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3220,7 +3247,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3253,7 +3280,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3270,7 +3297,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3286,7 +3313,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3319,7 +3346,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3336,7 +3363,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3352,24 +3379,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3385,7 +3412,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,11 +3422,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,31 +3471,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,11 +3521,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3517,7 +3544,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,7 +3603,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3589,15 +3616,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3609,31 +3636,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,28 +3669,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3675,28 +3702,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3752,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,11 +3785,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3814,7 +3841,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3900,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3906,14 +3933,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,11 +3950,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3939,7 +3966,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3956,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +3999,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +4016,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4005,14 +4032,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,14 +4049,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4082,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4071,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4115,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4104,7 +4131,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4121,11 +4148,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4181,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4170,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,49 +4214,181 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5245.6149999999998</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>262</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>263</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>264</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>265</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>49</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>208</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>266</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>44</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>49</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>267</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>268</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>49</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>258</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>269</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>270</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>49</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>168</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5655.6149999999998</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>271</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>272</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>273</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4658,10 +4817,30 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -590,6 +590,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -665,6 +674,12 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -824,7 +839,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:56 PM</t>
+    <t>Wednesday, 1 October, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3346,7 +3361,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3363,7 +3378,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3379,7 +3394,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3412,7 +3427,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,7 +3470,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3484,7 +3499,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3511,13 +3526,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3544,7 +3559,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3561,7 +3576,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3610,7 +3625,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3624,10 +3639,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3657,10 +3672,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,7 +3684,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3686,11 +3701,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3709,7 +3724,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,28 +3750,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3768,7 +3783,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3781,15 +3796,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,11 +3833,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3851,11 +3866,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3891,7 +3906,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3907,7 +3922,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3917,11 +3932,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3940,7 +3955,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,14 +3965,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>247</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4016,11 +4031,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4032,14 +4047,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,14 +4064,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,11 +4097,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4138,7 +4153,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,11 +4163,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4181,11 +4196,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4214,11 +4229,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,11 +4262,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4263,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,11 +4295,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,11 +4328,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4329,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,49 +4361,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>272</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>273</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>49</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>263</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>274</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>275</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>49</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>168</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>169</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5655.6149999999998</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>271</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>272</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>273</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5801.6149999999998</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>276</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>277</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>278</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4837,10 +4918,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:57 PM</t>
+    <t>Wednesday, 1 October, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -128,7 +128,19 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>210.0000</t>
+    <t>315.0000</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
   </si>
   <si>
     <t>BIOVITA 60 GUMMIES</t>
@@ -236,12 +248,21 @@
     <t>94.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOXIUM 500MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>275.00</t>
   </si>
   <si>
@@ -494,9 +515,6 @@
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
     <t>81.0000</t>
   </si>
   <si>
@@ -839,7 +857,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 7:58 PM</t>
+    <t>Wednesday, 1 October, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,7 +1696,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1695,7 +1713,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1761,7 +1779,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1770,31 +1788,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1810,21 +1828,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1959,7 +1977,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1992,7 +2010,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2008,7 +2026,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2058,7 +2076,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2074,7 +2092,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2084,11 +2102,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2133,7 +2151,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2166,7 +2184,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2199,14 +2217,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2216,14 +2234,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,11 +2267,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,11 +2300,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2348,14 +2366,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2364,14 +2382,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,11 +2432,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,11 +2597,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2619,7 +2637,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2635,7 +2653,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2694,7 +2712,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2707,15 +2725,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2760,28 +2778,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2850,7 +2868,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2866,7 +2884,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,11 +2993,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3041,11 +3059,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3090,7 +3108,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3107,11 +3125,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3163,7 +3181,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3173,14 +3191,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,14 +3224,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3312,7 +3330,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3328,7 +3346,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3356,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3361,7 +3379,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3394,7 +3412,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3411,7 +3429,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3427,7 +3445,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3460,7 +3478,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,14 +3488,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3519,24 +3537,24 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3559,7 +3577,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3592,13 +3610,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3609,7 +3627,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3625,7 +3643,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3642,7 +3660,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3658,7 +3676,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3672,10 +3690,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3767,11 +3785,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3783,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,28 +3834,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3862,7 +3880,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3889,21 +3907,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3915,28 +3933,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3948,31 +3966,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3981,28 +3999,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4014,31 +4032,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,31 +4065,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>252</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4087,21 +4105,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4113,31 +4131,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>47</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,28 +4164,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4179,31 +4197,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,28 +4230,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4245,28 +4263,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4278,28 +4296,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4311,28 +4329,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4344,28 +4362,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4377,28 +4395,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4410,66 +4428,132 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5801.6149999999998</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>276</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>277</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>278</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>279</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>53</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>269</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>280</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>281</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>53</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>174</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5949.1850000000004</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>282</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>283</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>284</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4928,10 +5012,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -857,7 +857,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 8:32 PM</t>
+    <t>Wednesday, 1 October, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -836,6 +836,9 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
+    <t>ليفه</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -857,7 +860,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 8:42 PM</t>
+    <t>Wednesday, 1 October, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4402,7 +4405,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>276</v>
+        <v>153</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4412,11 +4415,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4428,14 +4431,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4445,11 +4448,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4468,7 +4471,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4478,11 +4481,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4494,14 +4497,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4511,49 +4514,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>281</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>282</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>53</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>174</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>175</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5949.1850000000004</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>282</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5969.1850000000004</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
         <v>283</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
         <v>284</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>285</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5022,10 +5058,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -407,6 +407,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -458,6 +467,12 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -782,10 +797,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>32.0000</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -806,9 +818,6 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -860,7 +869,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 8:45 PM</t>
+    <t>Wednesday, 1 October, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2689,7 +2698,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2699,11 +2708,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2755,7 +2764,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2788,24 +2797,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2814,28 +2823,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2887,7 +2896,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2920,7 +2929,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3003,7 +3012,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3019,7 +3028,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3033,10 +3042,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3062,11 +3071,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3151,7 +3160,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3177,7 +3186,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3194,11 +3203,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3243,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,14 +3269,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3276,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3309,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3540,14 +3549,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3580,7 +3589,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3613,21 +3622,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3639,14 +3648,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,11 +3665,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3672,31 +3681,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3738,14 +3747,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3778,7 +3787,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3825,10 +3834,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,7 +3846,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3854,11 +3863,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3877,7 +3886,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,28 +3912,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3936,7 +3945,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3949,15 +3958,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,11 +4028,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4059,7 +4068,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4075,7 +4084,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,11 +4094,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4108,7 +4117,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>258</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,11 +4193,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,14 +4292,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,11 +4325,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4349,11 +4358,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>277</v>
+        <v>65</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,11 +4457,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4471,7 +4480,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4514,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4537,7 +4546,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,49 +4556,115 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5969.1850000000004</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>282</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
         <v>283</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>53</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>272</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>284</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
         <v>285</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>53</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>179</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>6034.1850000000004</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>286</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>287</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>288</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5063,10 +5138,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 8:54 PM</t>
+    <t>Wednesday, 1 October, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -131,18 +131,21 @@
     <t>315.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>BIOVITA 60 GUMMIES</t>
   </si>
   <si>
@@ -302,6 +305,12 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>FLUROFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -320,6 +329,15 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
   </si>
   <si>
@@ -416,6 +434,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>MOVEASY 10 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>34.5000</t>
+  </si>
+  <si>
     <t>MUCOPHYLLINE SYRUP 125 ML</t>
   </si>
   <si>
@@ -725,6 +752,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>YEAST MEPACO 60 TABS</t>
   </si>
   <si>
@@ -797,7 +833,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>32.0000</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -869,7 +908,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 8:56 PM</t>
+    <t>Wednesday, 1 October, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1774,7 +1813,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1784,14 +1823,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1800,14 +1839,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1817,14 +1856,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1833,31 +1872,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1866,28 +1905,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1899,14 +1938,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1916,14 +1955,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1932,14 +1971,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1949,14 +1988,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1965,14 +2004,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1982,11 +2021,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1998,14 +2037,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2015,14 +2054,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2031,14 +2070,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2048,14 +2087,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2064,14 +2103,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2081,14 +2120,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2097,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2114,14 +2153,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2130,14 +2169,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,11 +2186,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2163,14 +2202,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2180,11 +2219,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2196,14 +2235,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2213,14 +2252,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2229,14 +2268,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,11 +2285,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2262,14 +2301,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2279,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2295,14 +2334,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,11 +2351,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2328,14 +2367,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,14 +2384,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2361,14 +2400,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2378,11 +2417,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2394,14 +2433,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,14 +2450,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2427,14 +2466,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,14 +2483,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2460,14 +2499,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2477,11 +2516,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2493,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,11 +2549,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2526,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2559,14 +2598,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2576,11 +2615,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2592,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,11 +2648,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2625,14 +2664,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,11 +2681,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2658,14 +2697,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2691,14 +2730,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,11 +2747,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2724,14 +2763,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2757,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,11 +2813,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2790,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2823,31 +2862,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,14 +2895,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,11 +2912,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2889,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,11 +2945,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2922,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,14 +2978,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2962,24 +3001,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,14 +3027,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,14 +3044,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,14 +3060,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,11 +3077,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3054,14 +3093,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,11 +3110,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3087,14 +3126,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3143,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3159,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,14 +3176,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3153,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3170,11 +3209,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3186,14 +3225,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,11 +3242,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3219,14 +3258,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,11 +3275,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3259,7 +3298,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3292,7 +3331,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,14 +3357,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,14 +3374,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3351,14 +3390,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3407,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3440,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3417,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3450,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,14 +3522,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3500,14 +3539,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3516,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3572,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3605,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3582,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,11 +3671,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3648,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3704,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3681,31 +3720,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3770,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3786,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,14 +3803,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3780,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,14 +3836,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3813,28 +3852,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3846,14 +3885,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,11 +3902,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3879,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,14 +3935,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3952,7 +3991,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3966,7 +4005,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3978,28 +4017,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4011,31 +4050,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,28 +4083,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4077,28 +4116,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4110,31 +4149,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4143,28 +4182,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4176,28 +4215,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4209,31 +4248,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,28 +4281,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4275,31 +4314,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,28 +4347,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4341,28 +4380,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4374,31 +4413,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4414,21 +4453,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4440,31 +4479,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,28 +4512,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4506,28 +4545,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4539,28 +4578,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4572,28 +4611,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4605,66 +4644,231 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>6034.1850000000004</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>291</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>167</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>54</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>162</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>292</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>293</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>54</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>231</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>49</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>54</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>14</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>295</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>296</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>54</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>285</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>286</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>287</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>288</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>297</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>298</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>54</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>188</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6250.9949999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>299</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>300</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>301</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5148,10 +5352,35 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -791,6 +791,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -908,7 +914,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 8:58 PM</t>
+    <t>Wednesday, 1 October, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4281,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,11 +4304,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4397,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4413,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4430,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>275</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>285</v>
+        <v>162</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4545,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,11 +4568,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4611,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4628,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,11 +4700,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4750,7 +4756,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,11 +4799,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4826,49 +4832,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>299</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>300</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>54</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>188</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>189</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6250.9949999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>299</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>300</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c t="s" r="Q107" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6280.9949999999999</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>301</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>302</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>303</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5377,10 +5416,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:13 PM</t>
+    <t>Wednesday, 1 October, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:14 PM</t>
+    <t>Wednesday, 1 October, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>FLEBOTON 3 AMP.</t>
   </si>
   <si>
@@ -677,6 +686,15 @@
     <t>176.00</t>
   </si>
   <si>
+    <t>TREXOZOLA 2.5 MG 10 F.C.TABS</t>
+  </si>
+  <si>
+    <t>197.00</t>
+  </si>
+  <si>
+    <t>197.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -914,7 +932,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:19 PM</t>
+    <t>Wednesday, 1 October, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2380,7 +2398,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2446,7 +2464,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2479,7 +2497,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2512,7 +2530,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2545,7 +2563,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2562,7 +2580,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2578,7 +2596,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2611,7 +2629,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2628,7 +2646,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2644,7 +2662,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2661,7 +2679,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2677,7 +2695,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2694,7 +2712,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2710,7 +2728,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2720,11 +2738,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2736,7 +2754,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2776,7 +2794,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2793,7 +2811,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2809,7 +2827,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2826,7 +2844,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2875,7 +2893,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2892,7 +2910,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2908,7 +2926,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2974,7 +2992,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3007,24 +3025,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,28 +3051,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3106,7 +3124,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3120,7 +3138,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3182,14 +3200,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3219,10 +3237,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,11 +3266,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3271,7 +3289,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3288,7 +3306,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3304,7 +3322,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3321,7 +3339,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3337,7 +3355,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,11 +3365,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,7 +3398,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,7 +3447,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3469,7 +3487,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3486,7 +3504,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3502,7 +3520,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3552,7 +3570,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3568,7 +3586,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,7 +3629,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3634,7 +3652,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3662,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3667,7 +3685,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3700,7 +3718,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3733,7 +3751,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3750,7 +3768,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3766,7 +3784,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3799,7 +3817,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3827,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,7 +3843,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3842,11 +3860,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3858,24 +3876,24 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3898,7 +3916,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3931,13 +3949,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3948,7 +3966,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3964,7 +3982,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3981,7 +3999,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3997,7 +4015,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4011,10 +4029,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4091,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4106,11 +4124,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,7 +4173,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4172,11 +4190,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4188,28 +4206,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4234,7 +4252,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4261,7 +4279,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,11 +4289,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4287,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4327,7 +4345,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,11 +4355,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4353,14 +4371,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4388,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,11 +4421,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4454,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4487,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>277</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4492,7 +4510,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>279</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,11 +4520,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4553,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>52</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,11 +4586,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4584,14 +4602,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,14 +4619,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,14 +4635,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,11 +4652,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4650,14 +4668,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4685,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4683,14 +4701,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4718,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4716,14 +4734,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,11 +4751,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4749,14 +4767,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4784,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4782,14 +4800,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4817,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4815,14 +4833,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4850,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4848,14 +4866,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,49 +4883,115 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6280.9949999999999</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>301</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>302</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>303</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>304</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>54</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>293</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>305</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>306</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>54</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>191</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6492.8450000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>307</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>308</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>309</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5421,10 +5505,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -218,6 +218,24 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONTRA ANTIDANDRUFF SHAMPOO 150 ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>CONTRA CONDITIOER</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -407,6 +425,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>LC NATURALS HAIR TONIC SPRAY</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>380.0000</t>
+  </si>
+  <si>
     <t>LIMITLESS WOMAN MAX 30 TABS.</t>
   </si>
   <si>
@@ -425,6 +452,24 @@
     <t>11.3850</t>
   </si>
   <si>
+    <t xml:space="preserve">METFORMIN  XR 1000  30TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILASTIN  SERUM120ML</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -713,12 +758,6 @@
     <t>TROPHIC SILICONE GEL</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -932,7 +971,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:22 PM</t>
+    <t>Wednesday, 1 October, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2101,7 +2140,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2111,14 +2150,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2127,31 +2166,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2160,14 +2199,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2177,14 +2216,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2193,14 +2232,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2210,14 +2249,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2226,14 +2265,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2243,14 +2282,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2259,14 +2298,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2299,7 +2338,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2316,7 +2355,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2342,14 +2381,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2358,7 +2397,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2375,14 +2414,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2391,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2408,14 +2447,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2431,7 +2470,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,14 +2480,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2496,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,11 +2513,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2490,14 +2529,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2530,7 +2569,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2563,7 +2602,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2596,7 +2635,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2613,7 +2652,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2629,7 +2668,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2646,7 +2685,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2662,7 +2701,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2679,7 +2718,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2695,7 +2734,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2728,7 +2767,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2761,7 +2800,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2810,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2826,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2843,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2820,14 +2859,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,7 +2876,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2860,13 +2899,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2893,7 +2932,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2926,7 +2965,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2959,21 +2998,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2985,7 +3024,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2998,15 +3037,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3018,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3051,28 +3090,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3084,14 +3123,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3117,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3134,11 +3173,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3150,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3167,11 +3206,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3183,14 +3222,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3200,14 +3239,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>70</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3216,31 +3255,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3256,7 +3295,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3270,7 +3309,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3282,14 +3321,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,11 +3338,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3315,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,14 +3371,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3355,7 +3394,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,14 +3404,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3388,7 +3427,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3437,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3414,14 +3453,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,11 +3470,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3447,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3536,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,14 +3552,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3530,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3585,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,11 +3668,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3645,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3678,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3711,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,7 +3783,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3761,14 +3800,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3777,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3866,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3850,7 +3889,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3883,7 +3922,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3893,11 +3932,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3909,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3942,31 +3981,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4008,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4041,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4081,7 +4120,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4095,7 +4134,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4107,7 +4146,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4120,15 +4159,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4147,7 +4186,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,11 +4295,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4279,21 +4318,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4305,20 +4344,20 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4329,7 +4368,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4345,21 +4384,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4371,28 +4410,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4404,28 +4443,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4444,7 +4483,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4454,14 +4493,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4487,11 +4526,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4503,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,11 +4559,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4543,7 +4582,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>283</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,11 +4625,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4602,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,14 +4658,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4652,11 +4691,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4668,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,11 +4724,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4701,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4718,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4741,7 +4780,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4790,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4767,14 +4806,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,14 +4823,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4800,14 +4839,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,11 +4856,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4833,14 +4872,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4850,11 +4889,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4866,7 +4905,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4883,11 +4922,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4899,14 +4938,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,11 +4955,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4932,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,49 +4988,214 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6492.8450000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>312</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>185</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>54</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>180</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>313</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>314</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>54</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>250</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>315</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>49</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>54</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>14</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>316</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>317</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>54</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>306</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>307</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>308</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>309</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q113" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>318</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>319</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>54</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>206</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>7606.8450000000003</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>320</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>321</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>322</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5515,10 +5719,35 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -971,7 +971,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:23 PM</t>
+    <t>Wednesday, 1 October, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2140,7 +2140,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2173,7 +2173,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2899,7 +2899,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2998,7 +2998,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3031,7 +3031,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -935,6 +935,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -971,7 +977,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:26 PM</t>
+    <t>Wednesday, 1 October, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2140,7 +2146,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2173,7 +2179,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2899,7 +2905,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2998,7 +3004,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3031,7 +3037,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -4879,7 +4885,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,11 +4928,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>164</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +4961,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>164</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,11 +5060,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5077,7 +5083,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,11 +5093,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5153,49 +5159,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>320</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>321</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>54</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>206</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>207</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>7606.8450000000003</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>320</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>321</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>7621.8450000000003</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>322</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>323</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>324</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5744,10 +5783,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:28 PM</t>
+    <t>Wednesday, 1 October, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -797,6 +797,9 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -896,10 +899,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -920,9 +923,6 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -977,7 +977,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:29 PM</t>
+    <t>Wednesday, 1 October, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4357,7 +4357,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4383,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4400,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4433,11 +4433,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4466,11 +4466,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4482,28 +4482,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4515,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,11 +4532,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4548,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,11 +4565,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4581,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4598,11 +4598,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4614,14 +4614,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,11 +4631,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4654,7 +4654,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,14 +4680,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4697,14 +4697,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4720,7 +4720,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4746,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4763,14 +4763,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4796,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,14 +4845,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4878,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,11 +4895,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4911,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,11 +4928,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4944,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,11 +4961,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -4977,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4994,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>164</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5010,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5043,14 +5043,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5060,11 +5060,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5076,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>185</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5109,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>49</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5126,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5142,14 +5142,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,11 +5159,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5175,14 +5175,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5192,49 +5192,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>320</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>321</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>54</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>206</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>207</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>7621.8450000000003</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>7640.6750000000002</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>322</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
         <v>323</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
         <v>324</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5788,10 +5821,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:31 PM</t>
+    <t>Wednesday, 1 October, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>315.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -236,6 +248,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -275,9 +296,6 @@
     <t>6:3</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -899,30 +917,42 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -977,7 +1007,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:36 PM</t>
+    <t>Wednesday, 1 October, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1882,7 +1912,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1892,11 +1922,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1908,14 +1938,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1932,7 +1962,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1941,14 +1971,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1965,7 +1995,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1974,31 +2004,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2014,21 +2044,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -2040,14 +2070,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2090,14 +2120,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2106,14 +2136,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2146,7 +2176,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2156,11 +2186,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2172,7 +2202,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2185,15 +2215,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2205,20 +2235,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2229,7 +2259,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2245,7 +2275,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2255,14 +2285,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2271,14 +2301,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2295,7 +2325,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2328,7 +2358,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2344,7 +2374,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2361,7 +2391,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2377,7 +2407,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2387,7 +2417,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2410,7 +2440,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2427,7 +2457,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2453,14 +2483,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2469,7 +2499,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2486,14 +2516,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2542,7 +2572,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2552,14 +2582,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2585,11 +2615,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2618,14 +2648,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2641,7 +2671,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2674,7 +2704,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2707,7 +2737,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2724,7 +2754,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2740,7 +2770,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2757,7 +2787,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2773,7 +2803,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2790,7 +2820,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2806,7 +2836,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2839,7 +2869,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2872,7 +2902,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2882,14 +2912,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2898,31 +2928,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2931,7 +2961,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2948,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2971,13 +3001,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2988,7 +3018,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3004,13 +3034,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3043,7 +3073,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3054,7 +3084,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3070,13 +3100,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3103,13 +3133,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3136,7 +3166,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3153,7 +3183,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3169,7 +3199,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3179,11 +3209,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3212,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3274,15 +3304,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3311,14 +3341,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3327,28 +3357,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3367,7 +3397,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3381,7 +3411,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3393,14 +3423,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3410,14 +3440,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3426,14 +3456,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3447,10 +3477,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3459,14 +3489,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3476,14 +3506,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3499,7 +3529,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,14 +3539,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,14 +3572,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3565,7 +3595,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3598,7 +3628,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3624,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,11 +3671,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3657,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,7 +3720,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3707,11 +3737,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3723,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,14 +3770,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3763,7 +3793,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3836,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,14 +3852,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3869,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3855,14 +3885,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,14 +3902,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3888,14 +3918,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3912,7 +3942,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3928,7 +3958,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,14 +3968,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3961,7 +3991,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3994,7 +4024,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4011,7 +4041,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4027,7 +4057,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,14 +4067,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4060,7 +4090,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4077,7 +4107,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4093,7 +4123,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,14 +4133,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4119,7 +4149,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4136,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4152,28 +4182,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4185,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,11 +4232,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4218,31 +4248,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4258,7 +4288,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4275,7 +4305,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4291,7 +4321,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4305,10 +4335,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4317,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4367,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4383,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>84</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4449,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4482,7 +4512,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4499,11 +4529,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4515,28 +4545,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4561,7 +4591,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4588,21 +4618,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4614,20 +4644,20 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4654,21 +4684,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4680,31 +4710,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4713,28 +4743,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4746,31 +4776,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,31 +4809,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4819,21 +4849,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>299</v>
+        <v>56</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4845,31 +4875,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>52</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4885,21 +4915,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4911,28 +4941,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4944,31 +4974,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,28 +5007,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5010,28 +5040,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5043,28 +5073,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5076,28 +5106,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5109,28 +5139,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5142,28 +5172,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5175,28 +5205,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5208,66 +5238,165 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>7640.6750000000002</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>322</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>323</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>324</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>327</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>53</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>58</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>328</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>329</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>58</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>316</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>330</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>331</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>58</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>212</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7700.3800000000001</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>332</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>333</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>334</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5826,10 +5955,25 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -842,6 +842,9 @@
     <t>YEAST MEPACO 60 TABS</t>
   </si>
   <si>
+    <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>ZINCODERM TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -1007,7 +1010,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:42 PM</t>
+    <t>Wednesday, 1 October, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4585,7 +4588,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4611,28 +4614,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4644,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4677,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4710,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4743,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,11 +4763,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4783,7 +4786,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4809,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4849,7 +4852,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,11 +4862,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4875,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>303</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,7 +4911,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,11 +4961,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4974,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5007,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,11 +5060,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5073,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5113,7 +5116,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5146,7 +5149,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5156,11 +5159,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5179,7 +5182,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,11 +5192,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5212,7 +5215,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5245,7 +5248,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,11 +5258,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5271,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5311,7 +5314,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>329</v>
+        <v>53</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,11 +5324,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5337,14 +5340,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5354,49 +5357,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>331</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>332</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>58</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>212</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>213</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7700.3800000000001</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>332</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7731.3800000000001</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>333</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
         <v>334</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>335</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5970,10 +6006,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -1010,7 +1010,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:43 PM</t>
+    <t>Wednesday, 1 October, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -1010,7 +1010,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 9:45 PM</t>
+    <t>Wednesday, 1 October, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -593,6 +602,12 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -779,12 +794,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>UNITRIN 25MG 30 CAPS.</t>
   </si>
   <si>
@@ -1010,7 +1019,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 10:07 PM</t>
+    <t>Wednesday, 1 October, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1825,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1833,7 +1842,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1882,7 +1891,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1925,11 +1934,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1958,11 +1967,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2014,7 +2023,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2040,31 +2049,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2073,28 +2082,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2146,7 +2155,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2163,7 +2172,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2179,7 +2188,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2251,7 +2260,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2278,13 +2287,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2295,7 +2304,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2337,14 +2346,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2394,7 +2403,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2443,7 +2452,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2453,7 +2462,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2476,7 +2485,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2509,7 +2518,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2526,7 +2535,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2641,7 +2650,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2707,7 +2716,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2740,7 +2749,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2773,7 +2782,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2806,7 +2815,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2823,7 +2832,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2839,7 +2848,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2872,7 +2881,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2889,7 +2898,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2905,7 +2914,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2922,7 +2931,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2938,7 +2947,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2955,7 +2964,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2971,7 +2980,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2997,7 +3006,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3010,18 +3019,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3043,7 +3052,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3070,7 +3079,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3087,7 +3096,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3103,13 +3112,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3120,7 +3129,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3136,13 +3145,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3169,13 +3178,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3235,7 +3244,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3252,7 +3261,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3268,7 +3277,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3334,7 +3343,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3367,24 +3376,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3393,28 +3402,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3466,7 +3475,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3480,7 +3489,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3579,10 +3588,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3604,18 +3613,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3631,7 +3640,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3645,10 +3654,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3730,7 +3739,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3763,7 +3772,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3789,7 +3798,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4070,11 +4079,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4258,21 +4267,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,11 +4310,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4317,31 +4326,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4367,14 +4376,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>34</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4416,14 +4425,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4442,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,14 +4475,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4489,7 +4498,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4499,14 +4508,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,14 +4541,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,11 +4607,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4614,7 +4623,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4631,11 +4640,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4647,7 +4656,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4660,15 +4669,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4680,7 +4689,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4693,15 +4702,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4713,28 +4722,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4746,28 +4755,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4779,28 +4788,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4812,31 +4821,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,28 +4854,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4878,31 +4887,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>56</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,31 +4920,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>304</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,28 +4953,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4977,31 +4986,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,31 +5019,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>186</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,28 +5052,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5076,31 +5085,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5109,28 +5118,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5149,21 +5158,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5175,28 +5184,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5208,28 +5217,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5241,28 +5250,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5274,28 +5283,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5314,21 +5323,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5353,15 +5362,15 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>34</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5380,59 +5389,125 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>56</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7731.3800000000001</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>332</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>333</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>61</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>320</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>334</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
         <v>335</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>61</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>217</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7786.3800000000001</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>336</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>337</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>338</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6011,10 +6086,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>APIDONE SYRUP 125ML</t>
   </si>
   <si>
@@ -227,6 +239,27 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -269,9 +302,6 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -461,6 +491,12 @@
     <t>380.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>LIMITLESS WOMAN MAX 30 TABS.</t>
   </si>
   <si>
@@ -566,6 +602,9 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>NO-MIGRAIN 30 F.C. TAB</t>
+  </si>
+  <si>
     <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
   </si>
   <si>
@@ -701,9 +740,6 @@
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -713,9 +749,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -731,9 +764,6 @@
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
     <t>93.0000</t>
   </si>
   <si>
@@ -1019,7 +1049,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 10:15 PM</t>
+    <t>Wednesday, 1 October, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1825,7 +1855,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1835,14 +1865,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1851,14 +1881,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1868,14 +1898,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1891,7 +1921,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1908,7 +1938,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1941,7 +1971,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1990,7 +2020,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2000,11 +2030,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2040,7 +2070,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2049,14 +2079,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2073,7 +2103,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2082,31 +2112,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2122,21 +2152,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2198,14 +2228,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2254,7 +2284,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2264,14 +2294,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2287,24 +2317,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2363,14 +2393,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2379,20 +2409,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2403,7 +2433,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2419,7 +2449,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2436,7 +2466,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2452,7 +2482,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2462,7 +2492,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2485,7 +2515,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2495,14 +2525,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2511,14 +2541,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2528,14 +2558,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2544,14 +2574,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2561,14 +2591,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2577,14 +2607,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2594,14 +2624,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2627,11 +2657,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2643,7 +2673,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2660,14 +2690,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2676,14 +2706,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2693,11 +2723,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2709,14 +2739,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2726,11 +2756,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2742,14 +2772,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2759,11 +2789,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2775,14 +2805,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2792,14 +2822,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2808,14 +2838,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2825,11 +2855,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2841,14 +2871,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2858,14 +2888,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2874,14 +2904,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2891,14 +2921,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2907,14 +2937,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2924,11 +2954,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2940,14 +2970,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2957,11 +2987,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2973,14 +3003,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2990,14 +3020,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3006,14 +3036,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3023,11 +3053,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3039,28 +3069,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3072,14 +3102,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3089,14 +3119,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3105,14 +3135,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3122,11 +3152,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3138,28 +3168,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3171,31 +3201,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3211,7 +3241,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3244,7 +3274,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3261,7 +3291,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3283,7 +3313,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3294,7 +3324,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3310,21 +3340,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3336,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3353,11 +3383,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3369,14 +3399,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3386,14 +3416,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3402,31 +3432,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3435,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3452,11 +3482,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3468,14 +3498,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3485,11 +3515,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3501,14 +3531,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3518,14 +3548,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3534,31 +3564,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3567,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3591,7 +3621,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3607,21 +3637,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3633,14 +3663,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3650,11 +3680,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3673,7 +3703,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3687,7 +3717,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3699,14 +3729,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3716,14 +3746,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3732,14 +3762,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3756,7 +3786,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3772,24 +3802,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3805,7 +3835,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3819,7 +3849,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3831,14 +3861,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3848,14 +3878,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3864,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3881,14 +3911,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3897,14 +3927,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3914,14 +3944,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3930,14 +3960,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3947,14 +3977,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3963,14 +3993,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3980,14 +4010,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3996,14 +4026,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4013,11 +4043,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4029,14 +4059,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4046,14 +4076,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4062,14 +4092,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4079,14 +4109,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4095,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4112,14 +4142,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4128,7 +4158,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4145,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4161,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4178,11 +4208,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4194,14 +4224,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4211,14 +4241,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4227,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4244,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4260,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,11 +4307,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4293,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4310,11 +4340,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4326,31 +4356,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4359,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4376,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4399,7 +4429,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4416,7 +4446,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4432,7 +4462,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4442,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4458,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,11 +4505,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4504,15 +4534,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4524,14 +4554,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4541,14 +4571,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4557,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4574,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,14 +4620,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,14 +4637,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4623,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4640,11 +4670,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4656,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,11 +4703,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4696,7 +4726,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4722,31 +4752,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4755,7 +4785,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4768,15 +4798,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4788,28 +4818,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4821,28 +4851,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4854,28 +4884,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4887,31 +4917,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4920,28 +4950,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4953,28 +4983,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4986,31 +5016,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5019,28 +5049,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5052,31 +5082,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5085,31 +5115,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5118,28 +5148,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5151,31 +5181,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,7 +5214,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5197,15 +5227,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5217,28 +5247,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>56</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5250,31 +5280,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>202</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5283,28 +5313,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5316,28 +5346,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>20</v>
@@ -5349,28 +5379,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5382,28 +5412,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5415,28 +5445,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5448,66 +5478,231 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>335</v>
+        <v>84</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7786.3800000000001</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>336</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>337</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>338</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>207</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>65</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>202</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>339</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>340</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>65</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>38</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>341</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>60</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>65</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>14</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>342</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>343</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>65</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>330</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>344</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>345</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>65</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>230</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7956.6599999999999</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>346</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>347</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>348</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6096,10 +6291,35 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -389,6 +389,15 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>27.8400</t>
+  </si>
+  <si>
     <t>FLEBOTON 3 AMP.</t>
   </si>
   <si>
@@ -476,6 +485,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -647,12 +665,18 @@
     <t>62.00</t>
   </si>
   <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>184.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -731,10 +755,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
+    <t>0:16</t>
+  </si>
+  <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>14.1000</t>
+    <t>42.3000</t>
   </si>
   <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
@@ -764,9 +791,6 @@
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>93.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
   </si>
   <si>
@@ -959,10 +983,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -983,9 +1004,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -1049,7 +1067,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 10:17 PM</t>
+    <t>Wednesday, 1 October, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2812,7 +2830,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2840,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2878,7 +2896,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2911,7 +2929,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2944,7 +2962,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2977,7 +2995,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2994,7 +3012,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3010,7 +3028,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3043,7 +3061,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3060,7 +3078,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3076,7 +3094,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3093,7 +3111,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3109,7 +3127,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3126,7 +3144,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3142,7 +3160,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,11 +3170,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3168,31 +3186,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,11 +3236,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3234,7 +3252,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3247,15 +3265,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3267,14 +3285,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3284,11 +3302,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3307,13 +3325,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3346,7 +3364,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3357,7 +3375,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3373,13 +3391,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3406,13 +3424,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3439,7 +3457,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3456,7 +3474,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3472,7 +3490,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,11 +3500,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3577,15 +3595,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,14 +3632,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3630,31 +3648,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3663,7 +3681,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3680,11 +3698,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3762,14 +3780,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3783,10 +3801,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3795,31 +3813,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3835,7 +3853,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3863,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,31 +3879,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3894,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3927,14 +3945,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,11 +3962,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3960,14 +3978,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,14 +3995,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,11 +4028,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4026,14 +4044,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,7 +4077,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4076,11 +4094,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4092,14 +4110,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4127,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4193,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,14 +4209,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,14 +4226,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4224,14 +4242,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,14 +4259,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4257,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,14 +4292,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4325,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4341,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,11 +4358,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4391,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4389,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4424,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4422,14 +4440,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,14 +4490,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4488,7 +4506,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4505,11 +4523,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4521,28 +4539,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4554,14 +4572,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,11 +4589,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4587,31 +4605,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4688,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4721,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4754,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>97</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,14 +4770,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4853,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,11 +4886,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4884,7 +4902,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4901,11 +4919,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4917,7 +4935,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4930,15 +4948,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4950,7 +4968,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4963,15 +4981,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4983,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,11 +5018,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5016,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5033,11 +5051,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5049,14 +5067,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5066,11 +5084,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5082,14 +5100,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,14 +5117,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,11 +5150,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5148,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5183,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,14 +5199,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,14 +5232,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5231,11 +5249,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5247,14 +5265,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,14 +5282,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>324</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5287,7 +5305,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5297,14 +5315,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5334,7 +5352,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5346,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5363,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5386,7 +5404,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5396,11 +5414,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5412,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5429,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5445,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5462,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5478,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5495,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5511,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5528,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5544,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,11 +5579,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5577,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5594,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5610,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5627,11 +5645,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>331</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5643,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5660,49 +5678,115 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7956.6599999999999</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>346</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>347</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>348</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>349</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>65</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>336</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>337</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>350</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>351</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>65</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>238</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>8180.6999999999998</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>352</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>353</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>354</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6316,10 +6400,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 500MG 5 VAGINAL SUPP.</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -263,9 +275,6 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -440,6 +449,15 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 625MG 16 TAB.</t>
   </si>
   <si>
@@ -512,7 +530,10 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>63.8400</t>
   </si>
   <si>
     <t>LIMITLESS WOMAN MAX 30 TABS.</t>
@@ -725,12 +746,6 @@
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -818,6 +833,21 @@
     <t>176.00</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>TREXOZOLA 2.5 MG 10 F.C.TABS</t>
   </si>
   <si>
@@ -929,12 +959,6 @@
     <t>بادي لوشن كير اند مور</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
@@ -1016,9 +1040,6 @@
     <t>فرش اسنان HASI</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -1067,7 +1088,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 11:21 PM</t>
+    <t>Wednesday, 1 October, 2025 11:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1840,7 +1861,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1873,7 +1894,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1906,7 +1927,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1916,14 +1937,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1949,14 +1970,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1972,7 +1993,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1989,7 +2010,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1998,14 +2019,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2022,7 +2043,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2071,7 +2092,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2081,11 +2102,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2121,7 +2142,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2154,7 +2175,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2163,31 +2184,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2203,21 +2224,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2246,14 +2267,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2345,7 +2366,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2385,7 +2406,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2401,7 +2422,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2440,7 +2461,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2467,13 +2488,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2484,7 +2505,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2500,7 +2521,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2533,7 +2554,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2543,14 +2564,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2583,7 +2604,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2599,7 +2620,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2632,7 +2653,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2642,7 +2663,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2665,7 +2686,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2698,7 +2719,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2715,7 +2736,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2731,7 +2752,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2741,11 +2762,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2830,7 +2851,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2863,7 +2884,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2873,14 +2894,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2889,14 +2910,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2929,7 +2950,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2962,7 +2983,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2995,7 +3016,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3028,7 +3049,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3045,7 +3066,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3061,7 +3082,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3094,7 +3115,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3111,7 +3132,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3127,7 +3148,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3160,7 +3181,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3193,7 +3214,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3203,14 +3224,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3226,7 +3247,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3236,11 +3257,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3252,31 +3273,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3302,11 +3323,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3318,7 +3339,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3331,15 +3352,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3351,14 +3372,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3368,14 +3389,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3384,28 +3405,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3417,7 +3438,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3430,18 +3451,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3450,28 +3471,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3483,28 +3504,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,14 +3554,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3589,7 +3610,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3606,7 +3627,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3632,14 +3653,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3648,7 +3669,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3661,15 +3682,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3698,14 +3719,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3714,31 +3735,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3747,7 +3768,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3764,11 +3785,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3780,14 +3801,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,14 +3818,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3813,14 +3834,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3830,14 +3851,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3846,14 +3867,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3886,24 +3907,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3919,7 +3940,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3945,31 +3966,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,14 +4032,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4028,11 +4049,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,14 +4082,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,11 +4115,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4110,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,7 +4164,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4160,11 +4181,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4214,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4247,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4259,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>244</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4275,14 +4296,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,14 +4313,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4308,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,14 +4346,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4348,7 +4369,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4365,7 +4386,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4381,7 +4402,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,14 +4412,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4407,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,11 +4445,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4440,14 +4461,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4457,14 +4478,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4473,14 +4494,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,14 +4511,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4506,14 +4527,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4523,14 +4544,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4539,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4579,7 +4600,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4589,14 +4610,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4605,7 +4626,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4618,15 +4639,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4638,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4655,11 +4676,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4671,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,31 +4725,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4737,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,11 +4775,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4770,14 +4791,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,14 +4808,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>226</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4803,14 +4824,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,11 +4841,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4836,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,14 +4874,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4869,7 +4890,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4886,11 +4907,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4902,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4940,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4935,14 +4956,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4973,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4968,7 +4989,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4985,11 +5006,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5001,28 +5022,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>31</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5034,28 +5055,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5067,28 +5088,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5100,28 +5121,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5133,28 +5154,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5166,31 +5187,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5199,28 +5220,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5232,28 +5253,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5272,24 +5293,24 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>324</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5298,28 +5319,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5338,21 +5359,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>329</v>
+        <v>67</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5371,24 +5392,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>63</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,28 +5418,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>20</v>
@@ -5430,28 +5451,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5463,31 +5484,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,28 +5517,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>20</v>
@@ -5529,28 +5550,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5562,28 +5583,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5595,28 +5616,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5628,28 +5649,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>39</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5661,28 +5682,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5694,28 +5715,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>337</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
@@ -5727,66 +5748,165 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>8180.6999999999998</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>352</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>353</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>354</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>64</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>69</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>14</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>355</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>356</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>69</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>343</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>357</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>358</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>69</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>31</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>8455.7000000000007</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>359</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>360</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>361</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6410,10 +6530,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>Wednesday, 1 October, 2025 11:22 PM</t>
+    <t>Wednesday, 1 October, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-01_00-00.xlsx
+++ b/DaySale_2025-10-01_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 12:08 AM</t>
+    <t>Thursday, 2 October, 2025 12:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
